--- a/mbs-perturbation/chain/svm/smote/chain-svm-default-results.xlsx
+++ b/mbs-perturbation/chain/svm/smote/chain-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7919463087248322</v>
+        <v>0.8951612903225806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5130434782608696</v>
+        <v>0.9652173913043478</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6226912928759895</v>
+        <v>0.9288702928870292</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8806230001882176</v>
+        <v>0.9758328627893845</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9336099585062241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5021645021645021</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6535211267605633</v>
+        <v>0.9533898305084746</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9089403350272915</v>
+        <v>0.9841332580463015</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9240506329113924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5130434782608696</v>
+        <v>0.9521739130434783</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6781609195402298</v>
+        <v>0.9379014989293363</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9044517958412098</v>
+        <v>0.9863705103969755</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9644444444444444</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.9434782608695652</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6213017751479289</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8748582230623818</v>
+        <v>0.9959168241965973</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5391304347826087</v>
+        <v>0.9391304347826087</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7005649717514124</v>
+        <v>0.968609865470852</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7989035916824196</v>
+        <v>0.9994896030245747</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9399304803829593</v>
+        <v>0.9434532652369283</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5047807265198569</v>
+        <v>0.9548051948051949</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6552480172152247</v>
+        <v>0.9485235283283691</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8735553891603042</v>
+        <v>0.9883486116907667</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/svm/smote/chain-svm-default-results.xlsx
+++ b/mbs-perturbation/chain/svm/smote/chain-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8951612903225806</v>
+        <v>0.6237288135593221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9652173913043478</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9288702928870292</v>
+        <v>0.7464503042596349</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9758328627893845</v>
+        <v>0.6983215998367512</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9336099585062241</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.974025974025974</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9533898305084746</v>
+        <v>0.9435897435897437</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9841332580463015</v>
+        <v>0.9798489950005101</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9240506329113924</v>
+        <v>0.9621621621621622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9521739130434783</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9379014989293363</v>
+        <v>0.9295039164490861</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9863705103969755</v>
+        <v>0.9788797061524334</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9644444444444444</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9434782608695652</v>
+        <v>0.9040404040404041</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.9496021220159152</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9959168241965973</v>
+        <v>0.9803363585089474</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9945054945054945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9391304347826087</v>
+        <v>0.9187817258883249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.968609865470852</v>
+        <v>0.9551451187335093</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994896030245747</v>
+        <v>0.9985899605188945</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9434532652369283</v>
+        <v>0.9077459607120624</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9548051948051949</v>
+        <v>0.9160795775008973</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9485235283283691</v>
+        <v>0.9048582410095778</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9883486116907667</v>
+        <v>0.9271953240035072</v>
       </c>
     </row>
   </sheetData>
